--- a/PageConfig.xlsx
+++ b/PageConfig.xlsx
@@ -594,10 +594,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -609,14 +609,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,6 +632,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -638,7 +654,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,16 +675,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,31 +708,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,7 +730,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,23 +744,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,7 +780,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,25 +792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,55 +810,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,7 +840,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,19 +894,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,7 +930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,25 +948,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,8 +971,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,17 +981,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1008,6 +997,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,15 +1051,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1068,148 +1068,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1579,8 +1579,8 @@
   <sheetPr/>
   <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="F143" sqref="F143"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="3"/>
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>

--- a/PageConfig.xlsx
+++ b/PageConfig.xlsx
@@ -595,9 +595,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -622,11 +622,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -634,21 +633,6 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -661,17 +645,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -692,6 +683,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
@@ -699,16 +698,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -717,6 +708,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,7 +730,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,17 +752,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -774,37 +774,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,7 +810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,19 +822,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +882,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,19 +912,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,61 +954,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,17 +982,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1027,6 +1016,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1038,15 +1036,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1065,148 +1054,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1580,7 +1580,7 @@
   <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="F143" sqref="F143"/>
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="3"/>
@@ -3465,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:4">
